--- a/phpprog/residenza ranitaria (RSA)/bagni.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/bagni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC22E8B6-54FC-4677-B94A-6B1E252F0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1104AB2-1A80-4445-9B8E-4ABAFC8B81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{021EF80D-2D41-40FA-A040-400834E88E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{021EF80D-2D41-40FA-A040-400834E88E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="piano interrato 01" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Lavandini per disabili</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B1DCDC-35A0-4D1B-914B-3EA26A318D4A}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +660,14 @@
       </c>
       <c r="B11" s="2">
         <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -745,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4608DBD9-EC57-45D8-96F8-1D4EDF1EA484}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/phpprog/residenza ranitaria (RSA)/bagni.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/bagni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1104AB2-1A80-4445-9B8E-4ABAFC8B81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB243ECC-C817-4DFE-B045-448F58FE6414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{021EF80D-2D41-40FA-A040-400834E88E8F}"/>
   </bookViews>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
